--- a/3-data/output/mpox-linked-pages.xlsx
+++ b/3-data/output/mpox-linked-pages.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A450"/>
+  <dimension ref="A1:A451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -822,833 +822,833 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Blackpool</t>
+          <t>Bibcode (identifier)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Blister</t>
+          <t>Blackpool</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Bolivian hemorrhagic fever</t>
+          <t>Blister</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Boston exanthem disease</t>
+          <t>Bolivian hemorrhagic fever</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Bourbon virus</t>
+          <t>Boston exanthem disease</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Bovine papillomavirus</t>
+          <t>Bourbon virus</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Bovine papular stomatitis</t>
+          <t>Bovine papillomavirus</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Bowenoid papulosis</t>
+          <t>Bovine papular stomatitis</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Brazilian hemorrhagic fever</t>
+          <t>Bowenoid papulosis</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Brincidofovir</t>
+          <t>Brazilian hemorrhagic fever</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Buffalopox</t>
+          <t>Brincidofovir</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bundibugyo virus</t>
+          <t>Buffalopox</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bunyamwera orthobunyavirus</t>
+          <t>Bundibugyo virus</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bunyavirales</t>
+          <t>Bunyamwera orthobunyavirus</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Bushmeat</t>
+          <t>Bunyavirales</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Butcher's wart</t>
+          <t>Bushmeat</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Bwamba orthobunyavirus</t>
+          <t>Butcher's wart</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>California encephalitis orthobunyavirus</t>
+          <t>Bwamba orthobunyavirus</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Case fatality rate</t>
+          <t>California encephalitis orthobunyavirus</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Center for Infectious Disease Research and Policy</t>
+          <t>Case fatality rate</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Centers for Disease Control and Prevention</t>
+          <t>Center for Infectious Disease Research and Policy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Central Africa</t>
+          <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Central African Republic</t>
+          <t>Central Africa</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Chandipura vesiculovirus</t>
+          <t>Central African Republic</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Chapare virus</t>
+          <t>Chandipura vesiculovirus</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Chickenpox</t>
+          <t>Chapare virus</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Chikungunya</t>
+          <t>Chickenpox</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Chikungunya virus</t>
+          <t>Chikungunya</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Clade</t>
+          <t>Chikungunya virus</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Cochrane (organisation)</t>
+          <t>Clade</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cold sore</t>
+          <t>Cochrane (organisation)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Colorado tick fever</t>
+          <t>Cold sore</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Community transmission</t>
+          <t>Colorado tick fever</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Complication (medicine)</t>
+          <t>Community transmission</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Congenital rubella syndrome</t>
+          <t>Complication (medicine)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Conjunctivitis</t>
+          <t>Congenital rubella syndrome</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Conjunctivitis</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cornea</t>
+          <t>Copenhagen</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Coronaviridae</t>
+          <t>Cornea</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cowpox</t>
+          <t>Coronaviridae</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Coxsackie A virus</t>
+          <t>Cowpox</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Crimean–Congo hemorrhagic fever</t>
+          <t>Coxsackie A virus</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Cytomegalovirus</t>
+          <t>Crimean–Congo hemorrhagic fever</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DNA</t>
+          <t>Cytomegalovirus</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DNA virus</t>
+          <t>DNA</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Democratic Republic of Congo</t>
+          <t>DNA virus</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Democratic Republic of Congo</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Dengue fever</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Dengue virus</t>
+          <t>Dengue fever</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Developing country</t>
+          <t>Dengue virus</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Differential diagnosis</t>
+          <t>Developing country</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Disseminated herpes zoster</t>
+          <t>Differential diagnosis</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Dobrava-Belgrade orthohantavirus</t>
+          <t>Disseminated herpes zoster</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Dog</t>
+          <t>Dobrava-Belgrade orthohantavirus</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Doi (identifier)</t>
+          <t>Dog</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Dormice</t>
+          <t>Doi (identifier)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Duvenhage lyssavirus</t>
+          <t>Dormice</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Eastern equine encephalitis</t>
+          <t>Duvenhage lyssavirus</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Ebola virus disease</t>
+          <t>Eastern equine encephalitis</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Eczema herpeticum</t>
+          <t>Ebola virus disease</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Eczema vaccinatum</t>
+          <t>Eczema herpeticum</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Electron microscope</t>
+          <t>Eczema vaccinatum</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Encephalitis</t>
+          <t>Electron microscope</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Endemic (epidemiology)</t>
+          <t>Encephalitis</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epidermodysplasia verruciformis</t>
+          <t>Endemic (epidemiology)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Equine sarcoid</t>
+          <t>Epidermodysplasia verruciformis</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Eruptive pseudoangiomatosis</t>
+          <t>Equine sarcoid</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Farmyard pox</t>
+          <t>Eruptive pseudoangiomatosis</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Fatigue</t>
+          <t>Farmyard pox</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Fecal–oral route</t>
+          <t>Fatigue</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Fifth disease</t>
+          <t>Fecal–oral route</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Filoviridae</t>
+          <t>Fifth disease</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Flat wart</t>
+          <t>Filoviridae</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Flaviviridae</t>
+          <t>Flat wart</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Fomite</t>
+          <t>Flaviviridae</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Foot-and-mouth disease virus</t>
+          <t>Fomite</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Funisciurus</t>
+          <t>Foot-and-mouth disease virus</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Gambian pouched rat</t>
+          <t>Funisciurus</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Gammaherpesvirinae</t>
+          <t>Gambian pouched rat</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Generalized vaccinia</t>
+          <t>Gammaherpesvirinae</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Genital herpes</t>
+          <t>Generalized vaccinia</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Genital wart</t>
+          <t>Genital herpes</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Ghana</t>
+          <t>Genital wart</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Gianotti–Crosti syndrome</t>
+          <t>Ghana</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Giant condyloma acuminatum</t>
+          <t>Gianotti–Crosti syndrome</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Goldman-Cecil Medicine</t>
+          <t>Giant condyloma acuminatum</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Graphiurus</t>
+          <t>Goldman-Cecil Medicine</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HIV/AIDS</t>
+          <t>Graphiurus</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Hand, foot, and mouth disease</t>
+          <t>HIV/AIDS</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Hantaan orthohantavirus</t>
+          <t>Hand, foot, and mouth disease</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Hantavirus hemorrhagic fever with renal syndrome</t>
+          <t>Hantaan orthohantavirus</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Hantavirus pulmonary syndrome</t>
+          <t>Hantavirus hemorrhagic fever with renal syndrome</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Heartland virus</t>
+          <t>Hantavirus pulmonary syndrome</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Heck's disease</t>
+          <t>Heartland virus</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Heliosciurus</t>
+          <t>Heck's disease</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hendra virus</t>
+          <t>Heliosciurus</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Henipavirus</t>
+          <t>Hendra virus</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Herd immunity</t>
+          <t>Henipavirus</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Herpangina</t>
+          <t>Herd immunity</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Herpes</t>
+          <t>Herpangina</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Herpes esophagitis</t>
+          <t>Herpes</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Herpes gladiatorum</t>
+          <t>Herpes esophagitis</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Herpes simplex keratitis</t>
+          <t>Herpes gladiatorum</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Herpes simplex virus</t>
+          <t>Herpes simplex keratitis</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Herpes zoster ophthalmicus</t>
+          <t>Herpes simplex virus</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Herpesviridae</t>
+          <t>Herpes zoster ophthalmicus</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Herpetic gingivostomatitis</t>
+          <t>Herpesviridae</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Herpetic whitlow</t>
+          <t>Herpetic gingivostomatitis</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Huaiyangshan banyangvirus</t>
+          <t>Herpetic whitlow</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Human T-lymphotropic virus 1</t>
+          <t>Huaiyangshan banyangvirus</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Human T-lymphotropic virus 2</t>
+          <t>Human T-lymphotropic virus 1</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Human herpesvirus 6</t>
+          <t>Human T-lymphotropic virus 2</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Hygiene</t>
+          <t>Human herpesvirus 6</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Hyperpigmentation</t>
+          <t>Hygiene</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Hypopigmentation</t>
+          <t>Hyperpigmentation</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ICD-10</t>
+          <t>Hypopigmentation</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ICD-11</t>
+          <t>ICD-10</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ISBN (identifier)</t>
+          <t>ICD-11</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ISSN (identifier)</t>
+          <t>ISBN (identifier)</t>
         </is>
       </c>
     </row>
@@ -3356,152 +3356,159 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Interim Register of Marine and Nonmarine Genera</t>
+          <t>ISSN (identifier)</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Interim Register of Marine and Nonmarine Genera</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Kilo-base pair</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Liberia</t>
+          <t>Kilo-base pair</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>National Center for Biotechnology Information</t>
+          <t>Liberia</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Nucleocytoviricota</t>
+          <t>National Center for Biotechnology Information</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Pokkesviricetes</t>
+          <t>Nucleocytoviricota</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Preben von Magnus</t>
+          <t>Pokkesviricetes</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Sierra Leone</t>
+          <t>Preben von Magnus</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>South Sudan</t>
+          <t>Sierra Leone</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Synonym (taxonomy)</t>
+          <t>South Sudan</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Tropical forests</t>
+          <t>Synonym (taxonomy)</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Varidnaviria</t>
+          <t>Tropical forests</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Virus classification</t>
+          <t>Varidnaviria</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Wikidata</t>
+          <t>Virus classification</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Wikispecies</t>
+          <t>Wikidata</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Wikipedia:Make technical articles understandable</t>
+          <t>Wikispecies</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Template:Taxonomy/Orthopoxvirus</t>
+          <t>Wikipedia:Make technical articles understandable</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Help:Maintenance template removal</t>
+          <t>Template:Taxonomy/Orthopoxvirus</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Help:Taxon identifiers</t>
+          <t>Help:Maintenance template removal</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category:Articles with J9U identifiers</t>
+          <t>Help:Taxon identifiers</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
+        <is>
+          <t>Category:Articles with J9U identifiers</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
         <is>
           <t>Category:Wikipedia articles that are too technical from June 2023</t>
         </is>

--- a/3-data/output/mpox-linked-pages.xlsx
+++ b/3-data/output/mpox-linked-pages.xlsx
@@ -3104,154 +3104,154 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Wikipedia:WikiProject Current events/Monkeypox outbreak task force</t>
+          <t>Wikipedia:Protection policy</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Template:2022–2023 mpox outbreak</t>
+          <t>Wikipedia:WikiProject Current events/Monkeypox outbreak task force</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Template:Country data Congo</t>
+          <t>Template:2022–2023 mpox outbreak</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Template:Country data Democratic Republic of the Congo</t>
+          <t>Template:Country data Congo</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Template:Country data Republic of the Congo</t>
+          <t>Template:Country data Democratic Republic of the Congo</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Template:Viral cutaneous conditions</t>
+          <t>Template:Country data Republic of the Congo</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Template:Zoonotic viral diseases</t>
+          <t>Template:Viral cutaneous conditions</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Template talk:2022–2023 mpox outbreak</t>
+          <t>Template:Zoonotic viral diseases</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Template talk:Viral cutaneous conditions</t>
+          <t>Template talk:2022–2023 mpox outbreak</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Template talk:Zoonotic viral diseases</t>
+          <t>Template talk:Viral cutaneous conditions</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Help:Authority control</t>
+          <t>Template talk:Zoonotic viral diseases</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Help:IPA/English</t>
+          <t>Help:Authority control</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Help:Pronunciation respelling key</t>
+          <t>Help:IPA/English</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Category:2022–2023 mpox outbreak</t>
+          <t>Help:Pronunciation respelling key</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Category:Articles with LNB identifiers</t>
+          <t>Category:2022–2023 mpox outbreak</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Category:Use dmy dates from December 2022</t>
+          <t>Category:Articles with LNB identifiers</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Category:Wikipedia articles in need of updating from May 2023</t>
+          <t>Category:Use dmy dates from December 2022</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Portal:Medicine</t>
+          <t>Category:Wikipedia articles in need of updating from May 2023</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Portal:Viruses</t>
+          <t>Portal:Medicine</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Mpox</t>
+          <t>Portal:Viruses</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Wikipedia:Categorizing redirects</t>
+          <t>Mpox</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Wikipedia:Protection policy</t>
+          <t>Wikipedia:Categorizing redirects</t>
         </is>
       </c>
     </row>
